--- a/Linux/DeviceDrivers/Document(important)/03.内核线程.xlsx
+++ b/Linux/DeviceDrivers/Document(important)/03.内核线程.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1FE26D9E-3F88-49B5-BC53-38C704784AC4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D0D9F3F-E704-45D8-B372-1A5AA0012824}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="kthread_hc" sheetId="1" r:id="rId1"/>
     <sheet name="kthread_seq" sheetId="2" r:id="rId2"/>
+    <sheet name="kthread_sam" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <r>
       <rPr>
@@ -1256,12 +1257,148 @@
 long __sched wait_for_completion_killable_timeout(struct completion *x, unsigned long timeout);</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>################################ kthread ################################</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>定义</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> threadfn</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int test_kthread(void *data)</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>static struct task_struct *work_thread;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>work_thread = kthread_create(test_kthread, NULL, "test_kthread");</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    }</t>
+  </si>
+  <si>
+    <t>wake_up_process(work_thread);</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        ...</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        schedule_timeout(1*HZ);</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>创建并运行内核线程</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>二</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>一</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>work_thread = kthread_run(test_kthread, NULL, "test_kthread");</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>停止内核线程</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    while (!</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>kthread_should_stop</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>()) {</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>if (!IS_ERR(work_thread)){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    kthread_stop(work_thread);</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1288,6 +1425,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1325,7 +1469,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1336,6 +1480,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1618,24 +1764,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="100.625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="100.6640625" style="2" customWidth="1"/>
     <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1646,7 +1792,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:4" ht="409.6" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1655,7 +1801,7 @@
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="2:4" ht="132" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:4" ht="132" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1666,7 +1812,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:4" ht="48" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1675,7 +1821,7 @@
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="2:4" ht="144" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:4" ht="144" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
@@ -1684,7 +1830,7 @@
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="2:4" ht="84" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:4" ht="84" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>16</v>
       </c>
@@ -1695,7 +1841,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="132" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:4" ht="144" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
@@ -1719,9 +1865,133 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DEB8CD6-D4C8-474A-BB2A-5543EE080F63}">
+  <dimension ref="B2:D24"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="AZ14" sqref="AZ14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="2.77734375" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C4" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C5" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="12.6" x14ac:dyDescent="0.3">
+      <c r="C6" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C8" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C13" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D14" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D15" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C16" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C22" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C23" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C24" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Linux/DeviceDrivers/Document(important)/03.内核线程.xlsx
+++ b/Linux/DeviceDrivers/Document(important)/03.内核线程.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Repo\SourceCodeRepo\Linux\DeviceDrivers\Document(important)\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{297096A7-E78A-4B21-841B-E462ED4E2D89}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="23070" windowHeight="6870"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="kthread_hc" sheetId="1" r:id="rId1"/>
     <sheet name="kthread_seq" sheetId="2" r:id="rId2"/>
     <sheet name="kthread_sam" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="205">
   <si>
     <t>基于4.1.15</t>
   </si>
@@ -32,7 +38,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="Courier New"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t>.c</t>
     </r>
@@ -41,6 +47,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>相关</t>
@@ -591,54 +598,6 @@
   </si>
   <si>
     <t>bool kthread_cancel_work_sync(struct kthread_work *work);</t>
-  </si>
-  <si>
-    <t>include/linux/completion.h</t>
-  </si>
-  <si>
-    <t>kernel/sched/completion.c</t>
-  </si>
-  <si>
-    <t>completion</t>
-  </si>
-  <si>
-    <t>struct completion {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    unsigned int done;</t>
-  </si>
-  <si>
-    <t>void complete(struct completion *x);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    wait_queue_head_t wait;</t>
-  </si>
-  <si>
-    <t>void __sched wait_for_completion(struct completion *x);</t>
-  </si>
-  <si>
-    <t>unsigned long __sched wait_for_completion_timeout(struct completion *x, unsigned long timeout);</t>
-  </si>
-  <si>
-    <t>vstatic inline void init_completion(struct completion *x);</t>
-  </si>
-  <si>
-    <t>void __sched wait_for_completion_io(struct completion *x);</t>
-  </si>
-  <si>
-    <t>unsigned long __sched wait_for_completion_io_timeout(struct completion *x, unsigned long timeout);</t>
-  </si>
-  <si>
-    <t>int __sched wait_for_completion_interruptible(struct completion *x);</t>
-  </si>
-  <si>
-    <t>long __sched wait_for_completion_interruptible_timeout(struct completion *x, unsigned long timeout);</t>
-  </si>
-  <si>
-    <t>int __sched wait_for_completion_killable(struct completion *x);</t>
-  </si>
-  <si>
-    <t>long __sched wait_for_completion_killable_timeout(struct completion *x, unsigned long timeout);</t>
   </si>
   <si>
     <t>################################ kthread ################################</t>
@@ -649,7 +608,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="Courier New"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">1. </t>
     </r>
@@ -658,6 +617,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>定义</t>
@@ -667,7 +627,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="Courier New"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve"> threadfn</t>
     </r>
@@ -684,7 +644,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="Courier New"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">    while (!</t>
     </r>
@@ -694,7 +654,7 @@
         <sz val="9"/>
         <color rgb="FFFF0000"/>
         <rFont val="Courier New"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t>kthread_should_stop</t>
     </r>
@@ -703,7 +663,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="Courier New"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t>()) {</t>
     </r>
@@ -723,7 +683,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="Courier New"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">2. </t>
     </r>
@@ -732,6 +692,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>创建并运行内核线程</t>
@@ -761,7 +722,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="Courier New"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">3. </t>
     </r>
@@ -770,6 +731,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>停止内核线程</t>
@@ -781,18 +743,104 @@
   <si>
     <t xml:space="preserve">    kthread_stop(work_thread);</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wait </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>与</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> completion </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>部分</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>见</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>《阻塞与等待队列</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>.xlsx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>》</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -804,368 +852,39 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="Courier New"/>
-      <charset val="134"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1210,251 +929,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1503,61 +980,17 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1815,34 +1248,34 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="B1:E258"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:E227"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="B167" sqref="B167"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A161" workbookViewId="0">
+      <selection activeCell="C192" sqref="C192"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.66666666666667" style="4" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" style="4" customWidth="1"/>
     <col min="2" max="2" width="14" style="4" customWidth="1"/>
-    <col min="3" max="3" width="100.666666666667" style="4" customWidth="1"/>
-    <col min="4" max="4" width="2.625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="100.666666666667" style="4" customWidth="1"/>
+    <col min="3" max="3" width="100.6640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="2.6640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="100.6640625" style="4" customWidth="1"/>
     <col min="6" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" spans="2:2">
+    <row r="1" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="1" spans="2:5">
+    <row r="2" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1854,7 +1287,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" spans="2:5">
+    <row r="3" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5"/>
       <c r="C3" s="6" t="s">
         <v>4</v>
@@ -1864,12 +1297,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1" spans="2:4">
+    <row r="4" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" s="3" customFormat="1" spans="2:5">
+    <row r="5" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
@@ -1881,7 +1314,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" s="3" customFormat="1" spans="2:5">
+    <row r="6" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
       <c r="C6" s="9" t="s">
         <v>9</v>
@@ -1891,7 +1324,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" spans="2:5">
+    <row r="7" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
       <c r="C7" s="9" t="s">
         <v>11</v>
@@ -1899,7 +1332,7 @@
       <c r="D7" s="6"/>
       <c r="E7" s="10"/>
     </row>
-    <row r="8" s="3" customFormat="1" spans="2:5">
+    <row r="8" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
       <c r="C8" s="9" t="s">
         <v>12</v>
@@ -1909,7 +1342,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" spans="2:5">
+    <row r="9" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
       <c r="C9" s="9" t="s">
         <v>14</v>
@@ -1919,7 +1352,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" s="3" customFormat="1" spans="2:5">
+    <row r="10" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
       <c r="C10" s="9" t="s">
         <v>16</v>
@@ -1929,7 +1362,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" s="3" customFormat="1" spans="2:5">
+    <row r="11" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="5"/>
       <c r="C11" s="9" t="s">
         <v>18</v>
@@ -1937,7 +1370,7 @@
       <c r="D11" s="6"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" s="3" customFormat="1" spans="2:5">
+    <row r="12" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
       <c r="C12" s="9" t="s">
         <v>19</v>
@@ -1945,7 +1378,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" s="3" customFormat="1" spans="2:5">
+    <row r="13" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
       <c r="C13" s="9" t="s">
         <v>20</v>
@@ -1953,7 +1386,7 @@
       <c r="D13" s="6"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" s="3" customFormat="1" spans="2:5">
+    <row r="14" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
       <c r="C14" s="9" t="s">
         <v>21</v>
@@ -1961,7 +1394,7 @@
       <c r="D14" s="6"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" s="3" customFormat="1" spans="2:5">
+    <row r="15" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
       <c r="C15" s="9" t="s">
         <v>22</v>
@@ -1969,7 +1402,7 @@
       <c r="D15" s="6"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" s="3" customFormat="1" spans="2:5">
+    <row r="16" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="5"/>
       <c r="C16" s="9" t="s">
         <v>23</v>
@@ -1977,7 +1410,7 @@
       <c r="D16" s="6"/>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" s="3" customFormat="1" spans="2:5">
+    <row r="17" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="5"/>
       <c r="C17" s="9" t="s">
         <v>24</v>
@@ -1985,7 +1418,7 @@
       <c r="D17" s="6"/>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" s="3" customFormat="1" spans="2:5">
+    <row r="18" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="5"/>
       <c r="C18" s="9" t="s">
         <v>25</v>
@@ -1993,7 +1426,7 @@
       <c r="D18" s="6"/>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" s="3" customFormat="1" spans="2:5">
+    <row r="19" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="5"/>
       <c r="C19" s="9" t="s">
         <v>26</v>
@@ -2001,7 +1434,7 @@
       <c r="D19" s="6"/>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" s="3" customFormat="1" spans="2:5">
+    <row r="20" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="5"/>
       <c r="C20" s="9" t="s">
         <v>27</v>
@@ -2009,7 +1442,7 @@
       <c r="D20" s="6"/>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" s="3" customFormat="1" spans="2:5">
+    <row r="21" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="5"/>
       <c r="C21" s="9" t="s">
         <v>28</v>
@@ -2017,7 +1450,7 @@
       <c r="D21" s="6"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" s="3" customFormat="1" spans="2:5">
+    <row r="22" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="5"/>
       <c r="C22" s="9" t="s">
         <v>29</v>
@@ -2025,7 +1458,7 @@
       <c r="D22" s="6"/>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" s="3" customFormat="1" spans="2:5">
+    <row r="23" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="5"/>
       <c r="C23" s="9" t="s">
         <v>30</v>
@@ -2033,7 +1466,7 @@
       <c r="D23" s="6"/>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" s="3" customFormat="1" spans="2:5">
+    <row r="24" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="5"/>
       <c r="C24" s="9" t="s">
         <v>31</v>
@@ -2041,7 +1474,7 @@
       <c r="D24" s="6"/>
       <c r="E24" s="5"/>
     </row>
-    <row r="25" s="3" customFormat="1" spans="2:5">
+    <row r="25" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="5"/>
       <c r="C25" s="9" t="s">
         <v>32</v>
@@ -2049,7 +1482,7 @@
       <c r="D25" s="6"/>
       <c r="E25" s="5"/>
     </row>
-    <row r="26" s="3" customFormat="1" spans="2:5">
+    <row r="26" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="5"/>
       <c r="C26" s="9" t="s">
         <v>33</v>
@@ -2057,7 +1490,7 @@
       <c r="D26" s="6"/>
       <c r="E26" s="5"/>
     </row>
-    <row r="27" s="3" customFormat="1" spans="2:5">
+    <row r="27" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="5"/>
       <c r="C27" s="9" t="s">
         <v>34</v>
@@ -2065,7 +1498,7 @@
       <c r="D27" s="6"/>
       <c r="E27" s="5"/>
     </row>
-    <row r="28" s="3" customFormat="1" spans="2:5">
+    <row r="28" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="5"/>
       <c r="C28" s="9" t="s">
         <v>35</v>
@@ -2073,7 +1506,7 @@
       <c r="D28" s="6"/>
       <c r="E28" s="5"/>
     </row>
-    <row r="29" s="3" customFormat="1" spans="2:5">
+    <row r="29" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="5"/>
       <c r="C29" s="9" t="s">
         <v>36</v>
@@ -2081,7 +1514,7 @@
       <c r="D29" s="6"/>
       <c r="E29" s="5"/>
     </row>
-    <row r="30" s="3" customFormat="1" spans="2:5">
+    <row r="30" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="5"/>
       <c r="C30" s="9" t="s">
         <v>37</v>
@@ -2089,7 +1522,7 @@
       <c r="D30" s="6"/>
       <c r="E30" s="5"/>
     </row>
-    <row r="31" s="3" customFormat="1" spans="2:5">
+    <row r="31" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="5"/>
       <c r="C31" s="9" t="s">
         <v>38</v>
@@ -2097,7 +1530,7 @@
       <c r="D31" s="6"/>
       <c r="E31" s="5"/>
     </row>
-    <row r="32" s="3" customFormat="1" spans="2:5">
+    <row r="32" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="5"/>
       <c r="C32" s="9" t="s">
         <v>39</v>
@@ -2105,7 +1538,7 @@
       <c r="D32" s="6"/>
       <c r="E32" s="5"/>
     </row>
-    <row r="33" s="3" customFormat="1" spans="2:5">
+    <row r="33" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="5"/>
       <c r="C33" s="9" t="s">
         <v>40</v>
@@ -2113,7 +1546,7 @@
       <c r="D33" s="6"/>
       <c r="E33" s="5"/>
     </row>
-    <row r="34" s="3" customFormat="1" spans="2:5">
+    <row r="34" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="5"/>
       <c r="C34" s="9" t="s">
         <v>41</v>
@@ -2121,7 +1554,7 @@
       <c r="D34" s="6"/>
       <c r="E34" s="5"/>
     </row>
-    <row r="35" s="3" customFormat="1" spans="2:5">
+    <row r="35" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="5"/>
       <c r="C35" s="9" t="s">
         <v>42</v>
@@ -2129,7 +1562,7 @@
       <c r="D35" s="6"/>
       <c r="E35" s="5"/>
     </row>
-    <row r="36" s="3" customFormat="1" spans="2:5">
+    <row r="36" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="5"/>
       <c r="C36" s="9" t="s">
         <v>43</v>
@@ -2137,7 +1570,7 @@
       <c r="D36" s="6"/>
       <c r="E36" s="5"/>
     </row>
-    <row r="37" s="3" customFormat="1" spans="2:5">
+    <row r="37" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="5"/>
       <c r="C37" s="9" t="s">
         <v>44</v>
@@ -2145,7 +1578,7 @@
       <c r="D37" s="6"/>
       <c r="E37" s="5"/>
     </row>
-    <row r="38" s="3" customFormat="1" spans="2:5">
+    <row r="38" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="5"/>
       <c r="C38" s="9" t="s">
         <v>45</v>
@@ -2153,7 +1586,7 @@
       <c r="D38" s="6"/>
       <c r="E38" s="5"/>
     </row>
-    <row r="39" s="3" customFormat="1" spans="2:5">
+    <row r="39" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="5"/>
       <c r="C39" s="9" t="s">
         <v>46</v>
@@ -2161,7 +1594,7 @@
       <c r="D39" s="6"/>
       <c r="E39" s="5"/>
     </row>
-    <row r="40" s="3" customFormat="1" spans="2:5">
+    <row r="40" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="5"/>
       <c r="C40" s="9" t="s">
         <v>47</v>
@@ -2169,7 +1602,7 @@
       <c r="D40" s="6"/>
       <c r="E40" s="5"/>
     </row>
-    <row r="41" s="3" customFormat="1" spans="2:5">
+    <row r="41" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="5"/>
       <c r="C41" s="9" t="s">
         <v>48</v>
@@ -2177,7 +1610,7 @@
       <c r="D41" s="6"/>
       <c r="E41" s="5"/>
     </row>
-    <row r="42" s="3" customFormat="1" spans="2:5">
+    <row r="42" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B42" s="5"/>
       <c r="C42" s="9" t="s">
         <v>49</v>
@@ -2185,7 +1618,7 @@
       <c r="D42" s="6"/>
       <c r="E42" s="5"/>
     </row>
-    <row r="43" s="3" customFormat="1" spans="2:5">
+    <row r="43" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" s="5"/>
       <c r="C43" s="9" t="s">
         <v>50</v>
@@ -2193,7 +1626,7 @@
       <c r="D43" s="6"/>
       <c r="E43" s="5"/>
     </row>
-    <row r="44" s="3" customFormat="1" spans="2:5">
+    <row r="44" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B44" s="5"/>
       <c r="C44" s="9" t="s">
         <v>51</v>
@@ -2201,7 +1634,7 @@
       <c r="D44" s="6"/>
       <c r="E44" s="5"/>
     </row>
-    <row r="45" s="3" customFormat="1" spans="2:5">
+    <row r="45" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45" s="5"/>
       <c r="C45" s="9" t="s">
         <v>52</v>
@@ -2209,7 +1642,7 @@
       <c r="D45" s="6"/>
       <c r="E45" s="5"/>
     </row>
-    <row r="46" s="3" customFormat="1" spans="2:5">
+    <row r="46" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B46" s="5"/>
       <c r="C46" s="9" t="s">
         <v>53</v>
@@ -2217,7 +1650,7 @@
       <c r="D46" s="6"/>
       <c r="E46" s="5"/>
     </row>
-    <row r="47" s="3" customFormat="1" spans="2:5">
+    <row r="47" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B47" s="5"/>
       <c r="C47" s="9" t="s">
         <v>54</v>
@@ -2225,7 +1658,7 @@
       <c r="D47" s="6"/>
       <c r="E47" s="5"/>
     </row>
-    <row r="48" s="3" customFormat="1" spans="2:5">
+    <row r="48" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B48" s="5"/>
       <c r="C48" s="9" t="s">
         <v>55</v>
@@ -2233,7 +1666,7 @@
       <c r="D48" s="6"/>
       <c r="E48" s="5"/>
     </row>
-    <row r="49" s="3" customFormat="1" spans="2:5">
+    <row r="49" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B49" s="5"/>
       <c r="C49" s="9" t="s">
         <v>56</v>
@@ -2241,7 +1674,7 @@
       <c r="D49" s="6"/>
       <c r="E49" s="5"/>
     </row>
-    <row r="50" s="3" customFormat="1" spans="2:5">
+    <row r="50" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B50" s="5"/>
       <c r="C50" s="9" t="s">
         <v>57</v>
@@ -2249,7 +1682,7 @@
       <c r="D50" s="6"/>
       <c r="E50" s="5"/>
     </row>
-    <row r="51" s="3" customFormat="1" spans="2:5">
+    <row r="51" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B51" s="5"/>
       <c r="C51" s="9" t="s">
         <v>58</v>
@@ -2257,7 +1690,7 @@
       <c r="D51" s="6"/>
       <c r="E51" s="5"/>
     </row>
-    <row r="52" s="3" customFormat="1" spans="2:5">
+    <row r="52" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="5"/>
       <c r="C52" s="9" t="s">
         <v>59</v>
@@ -2265,7 +1698,7 @@
       <c r="D52" s="6"/>
       <c r="E52" s="5"/>
     </row>
-    <row r="53" s="3" customFormat="1" spans="2:5">
+    <row r="53" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B53" s="5"/>
       <c r="C53" s="9" t="s">
         <v>60</v>
@@ -2273,7 +1706,7 @@
       <c r="D53" s="6"/>
       <c r="E53" s="5"/>
     </row>
-    <row r="54" s="3" customFormat="1" spans="2:5">
+    <row r="54" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B54" s="5"/>
       <c r="C54" s="9" t="s">
         <v>61</v>
@@ -2281,7 +1714,7 @@
       <c r="D54" s="6"/>
       <c r="E54" s="5"/>
     </row>
-    <row r="55" s="3" customFormat="1" spans="2:5">
+    <row r="55" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B55" s="5"/>
       <c r="C55" s="9" t="s">
         <v>62</v>
@@ -2289,7 +1722,7 @@
       <c r="D55" s="6"/>
       <c r="E55" s="5"/>
     </row>
-    <row r="56" s="3" customFormat="1" spans="2:5">
+    <row r="56" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B56" s="5"/>
       <c r="C56" s="9" t="s">
         <v>63</v>
@@ -2297,7 +1730,7 @@
       <c r="D56" s="6"/>
       <c r="E56" s="5"/>
     </row>
-    <row r="57" s="3" customFormat="1" spans="2:5">
+    <row r="57" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B57" s="5"/>
       <c r="C57" s="9" t="s">
         <v>64</v>
@@ -2305,7 +1738,7 @@
       <c r="D57" s="6"/>
       <c r="E57" s="5"/>
     </row>
-    <row r="58" s="3" customFormat="1" spans="2:5">
+    <row r="58" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B58" s="5"/>
       <c r="C58" s="9" t="s">
         <v>65</v>
@@ -2313,7 +1746,7 @@
       <c r="D58" s="6"/>
       <c r="E58" s="5"/>
     </row>
-    <row r="59" s="3" customFormat="1" spans="2:5">
+    <row r="59" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B59" s="5"/>
       <c r="C59" s="9" t="s">
         <v>66</v>
@@ -2321,7 +1754,7 @@
       <c r="D59" s="6"/>
       <c r="E59" s="5"/>
     </row>
-    <row r="60" s="3" customFormat="1" spans="2:5">
+    <row r="60" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B60" s="5"/>
       <c r="C60" s="9" t="s">
         <v>67</v>
@@ -2329,7 +1762,7 @@
       <c r="D60" s="6"/>
       <c r="E60" s="5"/>
     </row>
-    <row r="61" s="3" customFormat="1" spans="2:5">
+    <row r="61" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B61" s="5"/>
       <c r="C61" s="9" t="s">
         <v>68</v>
@@ -2337,7 +1770,7 @@
       <c r="D61" s="6"/>
       <c r="E61" s="5"/>
     </row>
-    <row r="62" s="3" customFormat="1" spans="2:5">
+    <row r="62" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B62" s="5"/>
       <c r="C62" s="9" t="s">
         <v>69</v>
@@ -2345,7 +1778,7 @@
       <c r="D62" s="6"/>
       <c r="E62" s="5"/>
     </row>
-    <row r="63" s="3" customFormat="1" spans="2:5">
+    <row r="63" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B63" s="5"/>
       <c r="C63" s="9" t="s">
         <v>70</v>
@@ -2353,7 +1786,7 @@
       <c r="D63" s="6"/>
       <c r="E63" s="5"/>
     </row>
-    <row r="64" s="3" customFormat="1" spans="2:5">
+    <row r="64" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B64" s="5"/>
       <c r="C64" s="9" t="s">
         <v>71</v>
@@ -2361,7 +1794,7 @@
       <c r="D64" s="6"/>
       <c r="E64" s="5"/>
     </row>
-    <row r="65" s="3" customFormat="1" spans="2:5">
+    <row r="65" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B65" s="5"/>
       <c r="C65" s="9" t="s">
         <v>72</v>
@@ -2369,7 +1802,7 @@
       <c r="D65" s="6"/>
       <c r="E65" s="5"/>
     </row>
-    <row r="66" s="3" customFormat="1" spans="2:5">
+    <row r="66" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B66" s="5"/>
       <c r="C66" s="9" t="s">
         <v>73</v>
@@ -2377,7 +1810,7 @@
       <c r="D66" s="6"/>
       <c r="E66" s="5"/>
     </row>
-    <row r="67" s="3" customFormat="1" spans="2:5">
+    <row r="67" spans="2:5" s="3" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="B67" s="5"/>
       <c r="C67" s="9" t="s">
         <v>74</v>
@@ -2385,7 +1818,7 @@
       <c r="D67" s="6"/>
       <c r="E67" s="5"/>
     </row>
-    <row r="68" s="3" customFormat="1" spans="2:5">
+    <row r="68" spans="2:5" s="3" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="B68" s="5"/>
       <c r="C68" s="9" t="s">
         <v>75</v>
@@ -2393,7 +1826,7 @@
       <c r="D68" s="6"/>
       <c r="E68" s="5"/>
     </row>
-    <row r="69" s="3" customFormat="1" spans="2:5">
+    <row r="69" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B69" s="5"/>
       <c r="C69" s="9" t="s">
         <v>76</v>
@@ -2401,7 +1834,7 @@
       <c r="D69" s="6"/>
       <c r="E69" s="5"/>
     </row>
-    <row r="70" s="3" customFormat="1" spans="2:5">
+    <row r="70" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B70" s="5"/>
       <c r="C70" s="9" t="s">
         <v>77</v>
@@ -2409,7 +1842,7 @@
       <c r="D70" s="6"/>
       <c r="E70" s="5"/>
     </row>
-    <row r="71" s="3" customFormat="1" spans="2:5">
+    <row r="71" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B71" s="5"/>
       <c r="C71" s="9" t="s">
         <v>78</v>
@@ -2417,7 +1850,7 @@
       <c r="D71" s="6"/>
       <c r="E71" s="5"/>
     </row>
-    <row r="72" s="3" customFormat="1" spans="2:5">
+    <row r="72" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B72" s="5"/>
       <c r="C72" s="9" t="s">
         <v>79</v>
@@ -2425,7 +1858,7 @@
       <c r="D72" s="6"/>
       <c r="E72" s="5"/>
     </row>
-    <row r="73" s="3" customFormat="1" spans="2:5">
+    <row r="73" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B73" s="5"/>
       <c r="C73" s="9" t="s">
         <v>80</v>
@@ -2433,7 +1866,7 @@
       <c r="D73" s="6"/>
       <c r="E73" s="5"/>
     </row>
-    <row r="74" s="3" customFormat="1" spans="2:5">
+    <row r="74" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B74" s="5"/>
       <c r="C74" s="9" t="s">
         <v>81</v>
@@ -2441,7 +1874,7 @@
       <c r="D74" s="6"/>
       <c r="E74" s="5"/>
     </row>
-    <row r="75" s="3" customFormat="1" spans="2:5">
+    <row r="75" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B75" s="5"/>
       <c r="C75" s="9" t="s">
         <v>82</v>
@@ -2449,7 +1882,7 @@
       <c r="D75" s="6"/>
       <c r="E75" s="5"/>
     </row>
-    <row r="76" s="3" customFormat="1" spans="2:5">
+    <row r="76" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B76" s="5"/>
       <c r="C76" s="9" t="s">
         <v>83</v>
@@ -2457,7 +1890,7 @@
       <c r="D76" s="6"/>
       <c r="E76" s="5"/>
     </row>
-    <row r="77" s="3" customFormat="1" spans="2:5">
+    <row r="77" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B77" s="5"/>
       <c r="C77" s="9" t="s">
         <v>84</v>
@@ -2465,7 +1898,7 @@
       <c r="D77" s="6"/>
       <c r="E77" s="5"/>
     </row>
-    <row r="78" s="3" customFormat="1" spans="2:5">
+    <row r="78" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B78" s="5"/>
       <c r="C78" s="9" t="s">
         <v>85</v>
@@ -2473,7 +1906,7 @@
       <c r="D78" s="6"/>
       <c r="E78" s="5"/>
     </row>
-    <row r="79" s="3" customFormat="1" spans="2:5">
+    <row r="79" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B79" s="5"/>
       <c r="C79" s="9" t="s">
         <v>86</v>
@@ -2481,7 +1914,7 @@
       <c r="D79" s="6"/>
       <c r="E79" s="5"/>
     </row>
-    <row r="80" s="3" customFormat="1" spans="2:5">
+    <row r="80" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B80" s="5"/>
       <c r="C80" s="9" t="s">
         <v>87</v>
@@ -2489,7 +1922,7 @@
       <c r="D80" s="6"/>
       <c r="E80" s="5"/>
     </row>
-    <row r="81" s="3" customFormat="1" spans="2:5">
+    <row r="81" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B81" s="5"/>
       <c r="C81" s="9" t="s">
         <v>88</v>
@@ -2497,7 +1930,7 @@
       <c r="D81" s="6"/>
       <c r="E81" s="5"/>
     </row>
-    <row r="82" s="3" customFormat="1" spans="2:5">
+    <row r="82" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B82" s="5"/>
       <c r="C82" s="9" t="s">
         <v>89</v>
@@ -2505,7 +1938,7 @@
       <c r="D82" s="6"/>
       <c r="E82" s="5"/>
     </row>
-    <row r="83" s="3" customFormat="1" spans="2:5">
+    <row r="83" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B83" s="5"/>
       <c r="C83" s="9" t="s">
         <v>90</v>
@@ -2513,7 +1946,7 @@
       <c r="D83" s="6"/>
       <c r="E83" s="5"/>
     </row>
-    <row r="84" s="3" customFormat="1" spans="2:5">
+    <row r="84" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B84" s="5"/>
       <c r="C84" s="9" t="s">
         <v>91</v>
@@ -2521,7 +1954,7 @@
       <c r="D84" s="6"/>
       <c r="E84" s="5"/>
     </row>
-    <row r="85" s="3" customFormat="1" spans="2:5">
+    <row r="85" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B85" s="5"/>
       <c r="C85" s="9" t="s">
         <v>92</v>
@@ -2529,7 +1962,7 @@
       <c r="D85" s="6"/>
       <c r="E85" s="5"/>
     </row>
-    <row r="86" s="3" customFormat="1" spans="2:5">
+    <row r="86" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B86" s="5"/>
       <c r="C86" s="9" t="s">
         <v>93</v>
@@ -2537,7 +1970,7 @@
       <c r="D86" s="6"/>
       <c r="E86" s="5"/>
     </row>
-    <row r="87" s="3" customFormat="1" spans="2:5">
+    <row r="87" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B87" s="5"/>
       <c r="C87" s="9" t="s">
         <v>94</v>
@@ -2545,7 +1978,7 @@
       <c r="D87" s="6"/>
       <c r="E87" s="5"/>
     </row>
-    <row r="88" s="3" customFormat="1" spans="2:5">
+    <row r="88" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B88" s="5"/>
       <c r="C88" s="9" t="s">
         <v>95</v>
@@ -2553,7 +1986,7 @@
       <c r="D88" s="6"/>
       <c r="E88" s="5"/>
     </row>
-    <row r="89" s="3" customFormat="1" spans="2:5">
+    <row r="89" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B89" s="5"/>
       <c r="C89" s="9" t="s">
         <v>96</v>
@@ -2561,7 +1994,7 @@
       <c r="D89" s="6"/>
       <c r="E89" s="5"/>
     </row>
-    <row r="90" s="3" customFormat="1" spans="2:5">
+    <row r="90" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B90" s="5"/>
       <c r="C90" s="9" t="s">
         <v>97</v>
@@ -2569,7 +2002,7 @@
       <c r="D90" s="6"/>
       <c r="E90" s="5"/>
     </row>
-    <row r="91" s="3" customFormat="1" spans="2:5">
+    <row r="91" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B91" s="5"/>
       <c r="C91" s="9" t="s">
         <v>98</v>
@@ -2577,7 +2010,7 @@
       <c r="D91" s="6"/>
       <c r="E91" s="5"/>
     </row>
-    <row r="92" s="3" customFormat="1" spans="2:5">
+    <row r="92" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B92" s="5"/>
       <c r="C92" s="9" t="s">
         <v>99</v>
@@ -2585,7 +2018,7 @@
       <c r="D92" s="6"/>
       <c r="E92" s="5"/>
     </row>
-    <row r="93" s="3" customFormat="1" spans="2:5">
+    <row r="93" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B93" s="5"/>
       <c r="C93" s="9" t="s">
         <v>100</v>
@@ -2593,7 +2026,7 @@
       <c r="D93" s="6"/>
       <c r="E93" s="5"/>
     </row>
-    <row r="94" s="3" customFormat="1" spans="2:5">
+    <row r="94" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B94" s="5"/>
       <c r="C94" s="9" t="s">
         <v>101</v>
@@ -2601,7 +2034,7 @@
       <c r="D94" s="6"/>
       <c r="E94" s="5"/>
     </row>
-    <row r="95" s="3" customFormat="1" spans="2:5">
+    <row r="95" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B95" s="5"/>
       <c r="C95" s="9" t="s">
         <v>102</v>
@@ -2609,7 +2042,7 @@
       <c r="D95" s="6"/>
       <c r="E95" s="5"/>
     </row>
-    <row r="96" s="3" customFormat="1" spans="2:5">
+    <row r="96" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B96" s="5"/>
       <c r="C96" s="9" t="s">
         <v>103</v>
@@ -2617,7 +2050,7 @@
       <c r="D96" s="6"/>
       <c r="E96" s="5"/>
     </row>
-    <row r="97" s="3" customFormat="1" spans="2:5">
+    <row r="97" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B97" s="5"/>
       <c r="C97" s="9" t="s">
         <v>104</v>
@@ -2625,7 +2058,7 @@
       <c r="D97" s="6"/>
       <c r="E97" s="5"/>
     </row>
-    <row r="98" s="3" customFormat="1" spans="2:5">
+    <row r="98" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B98" s="5"/>
       <c r="C98" s="9" t="s">
         <v>105</v>
@@ -2633,7 +2066,7 @@
       <c r="D98" s="6"/>
       <c r="E98" s="5"/>
     </row>
-    <row r="99" s="3" customFormat="1" spans="2:5">
+    <row r="99" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B99" s="5"/>
       <c r="C99" s="9" t="s">
         <v>106</v>
@@ -2641,7 +2074,7 @@
       <c r="D99" s="6"/>
       <c r="E99" s="5"/>
     </row>
-    <row r="100" s="3" customFormat="1" spans="2:5">
+    <row r="100" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B100" s="5"/>
       <c r="C100" s="9" t="s">
         <v>107</v>
@@ -2649,7 +2082,7 @@
       <c r="D100" s="6"/>
       <c r="E100" s="5"/>
     </row>
-    <row r="101" s="3" customFormat="1" spans="2:5">
+    <row r="101" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B101" s="5"/>
       <c r="C101" s="9" t="s">
         <v>108</v>
@@ -2657,7 +2090,7 @@
       <c r="D101" s="6"/>
       <c r="E101" s="5"/>
     </row>
-    <row r="102" s="3" customFormat="1" spans="2:5">
+    <row r="102" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B102" s="5"/>
       <c r="C102" s="9" t="s">
         <v>109</v>
@@ -2665,7 +2098,7 @@
       <c r="D102" s="6"/>
       <c r="E102" s="5"/>
     </row>
-    <row r="103" s="3" customFormat="1" spans="2:5">
+    <row r="103" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B103" s="5"/>
       <c r="C103" s="9" t="s">
         <v>110</v>
@@ -2673,7 +2106,7 @@
       <c r="D103" s="6"/>
       <c r="E103" s="5"/>
     </row>
-    <row r="104" s="3" customFormat="1" spans="2:5">
+    <row r="104" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B104" s="5"/>
       <c r="C104" s="9" t="s">
         <v>111</v>
@@ -2681,7 +2114,7 @@
       <c r="D104" s="6"/>
       <c r="E104" s="5"/>
     </row>
-    <row r="105" s="3" customFormat="1" spans="2:5">
+    <row r="105" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B105" s="5"/>
       <c r="C105" s="9" t="s">
         <v>112</v>
@@ -2689,7 +2122,7 @@
       <c r="D105" s="6"/>
       <c r="E105" s="5"/>
     </row>
-    <row r="106" s="3" customFormat="1" spans="2:5">
+    <row r="106" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B106" s="5"/>
       <c r="C106" s="9" t="s">
         <v>113</v>
@@ -2697,7 +2130,7 @@
       <c r="D106" s="6"/>
       <c r="E106" s="5"/>
     </row>
-    <row r="107" s="3" customFormat="1" spans="2:5">
+    <row r="107" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B107" s="5"/>
       <c r="C107" s="9" t="s">
         <v>114</v>
@@ -2705,7 +2138,7 @@
       <c r="D107" s="6"/>
       <c r="E107" s="5"/>
     </row>
-    <row r="108" s="3" customFormat="1" spans="2:5">
+    <row r="108" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B108" s="5"/>
       <c r="C108" s="12" t="s">
         <v>115</v>
@@ -2713,13 +2146,13 @@
       <c r="D108" s="6"/>
       <c r="E108" s="5"/>
     </row>
-    <row r="109" s="3" customFormat="1" spans="2:5">
+    <row r="109" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B109" s="5"/>
       <c r="C109" s="6"/>
       <c r="D109" s="6"/>
       <c r="E109" s="5"/>
     </row>
-    <row r="110" s="3" customFormat="1" spans="2:5">
+    <row r="110" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B110" s="5" t="s">
         <v>116</v>
       </c>
@@ -2729,7 +2162,7 @@
       <c r="D110" s="6"/>
       <c r="E110" s="5"/>
     </row>
-    <row r="111" s="3" customFormat="1" spans="2:5">
+    <row r="111" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B111" s="5"/>
       <c r="C111" s="9" t="s">
         <v>118</v>
@@ -2737,7 +2170,7 @@
       <c r="D111" s="6"/>
       <c r="E111" s="5"/>
     </row>
-    <row r="112" s="3" customFormat="1" spans="2:5">
+    <row r="112" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B112" s="5"/>
       <c r="C112" s="12" t="s">
         <v>115</v>
@@ -2745,13 +2178,13 @@
       <c r="D112" s="6"/>
       <c r="E112" s="5"/>
     </row>
-    <row r="113" s="3" customFormat="1" spans="2:5">
+    <row r="113" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B113" s="5"/>
       <c r="C113" s="6"/>
       <c r="D113" s="6"/>
       <c r="E113" s="5"/>
     </row>
-    <row r="114" s="3" customFormat="1" spans="2:5">
+    <row r="114" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B114" s="5" t="s">
         <v>119</v>
       </c>
@@ -2761,7 +2194,7 @@
       <c r="D114" s="6"/>
       <c r="E114" s="5"/>
     </row>
-    <row r="115" s="3" customFormat="1" spans="2:5">
+    <row r="115" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B115" s="5"/>
       <c r="C115" s="9" t="s">
         <v>121</v>
@@ -2769,7 +2202,7 @@
       <c r="D115" s="6"/>
       <c r="E115" s="5"/>
     </row>
-    <row r="116" s="3" customFormat="1" spans="2:5">
+    <row r="116" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B116" s="5"/>
       <c r="C116" s="9" t="s">
         <v>122</v>
@@ -2777,7 +2210,7 @@
       <c r="D116" s="6"/>
       <c r="E116" s="5"/>
     </row>
-    <row r="117" s="3" customFormat="1" spans="2:5">
+    <row r="117" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B117" s="5"/>
       <c r="C117" s="9" t="s">
         <v>123</v>
@@ -2785,7 +2218,7 @@
       <c r="D117" s="6"/>
       <c r="E117" s="5"/>
     </row>
-    <row r="118" s="3" customFormat="1" spans="2:5">
+    <row r="118" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B118" s="5"/>
       <c r="C118" s="9" t="s">
         <v>124</v>
@@ -2793,7 +2226,7 @@
       <c r="D118" s="6"/>
       <c r="E118" s="5"/>
     </row>
-    <row r="119" s="3" customFormat="1" spans="2:5">
+    <row r="119" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B119" s="5"/>
       <c r="C119" s="9" t="s">
         <v>125</v>
@@ -2801,7 +2234,7 @@
       <c r="D119" s="6"/>
       <c r="E119" s="5"/>
     </row>
-    <row r="120" s="3" customFormat="1" spans="2:5">
+    <row r="120" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B120" s="5"/>
       <c r="C120" s="9" t="s">
         <v>126</v>
@@ -2809,7 +2242,7 @@
       <c r="D120" s="6"/>
       <c r="E120" s="5"/>
     </row>
-    <row r="121" s="3" customFormat="1" spans="2:5">
+    <row r="121" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B121" s="5"/>
       <c r="C121" s="9" t="s">
         <v>127</v>
@@ -2817,7 +2250,7 @@
       <c r="D121" s="6"/>
       <c r="E121" s="5"/>
     </row>
-    <row r="122" s="3" customFormat="1" spans="2:5">
+    <row r="122" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B122" s="5"/>
       <c r="C122" s="9" t="s">
         <v>128</v>
@@ -2825,7 +2258,7 @@
       <c r="D122" s="6"/>
       <c r="E122" s="5"/>
     </row>
-    <row r="123" s="3" customFormat="1" spans="2:5">
+    <row r="123" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B123" s="5"/>
       <c r="C123" s="9" t="s">
         <v>129</v>
@@ -2833,7 +2266,7 @@
       <c r="D123" s="6"/>
       <c r="E123" s="5"/>
     </row>
-    <row r="124" s="3" customFormat="1" spans="2:5">
+    <row r="124" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B124" s="5"/>
       <c r="C124" s="12" t="s">
         <v>115</v>
@@ -2841,13 +2274,13 @@
       <c r="D124" s="6"/>
       <c r="E124" s="5"/>
     </row>
-    <row r="125" s="3" customFormat="1" spans="2:5">
+    <row r="125" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B125" s="5"/>
       <c r="C125" s="6"/>
       <c r="D125" s="6"/>
       <c r="E125" s="5"/>
     </row>
-    <row r="126" s="3" customFormat="1" spans="2:5">
+    <row r="126" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B126" s="5"/>
       <c r="C126" s="6" t="s">
         <v>130</v>
@@ -2857,12 +2290,12 @@
         <v>131</v>
       </c>
     </row>
-    <row r="127" s="3" customFormat="1" spans="2:4">
+    <row r="127" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B127" s="5"/>
       <c r="C127" s="6"/>
       <c r="D127" s="6"/>
     </row>
-    <row r="128" s="3" customFormat="1" spans="2:5">
+    <row r="128" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B128" s="5" t="s">
         <v>132</v>
       </c>
@@ -2874,7 +2307,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="129" s="3" customFormat="1" spans="2:5">
+    <row r="129" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B129" s="5"/>
       <c r="C129" s="9" t="s">
         <v>135</v>
@@ -2884,7 +2317,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="130" s="3" customFormat="1" spans="2:5">
+    <row r="130" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B130" s="5"/>
       <c r="C130" s="9" t="s">
         <v>130</v>
@@ -2894,7 +2327,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="131" s="3" customFormat="1" spans="2:5">
+    <row r="131" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B131" s="5"/>
       <c r="C131" s="9" t="s">
         <v>138</v>
@@ -2904,7 +2337,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="132" s="3" customFormat="1" spans="2:5">
+    <row r="132" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B132" s="5"/>
       <c r="C132" s="9" t="s">
         <v>140</v>
@@ -2914,7 +2347,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="133" s="3" customFormat="1" spans="2:5">
+    <row r="133" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B133" s="5"/>
       <c r="C133" s="9" t="s">
         <v>142</v>
@@ -2922,7 +2355,7 @@
       <c r="D133" s="6"/>
       <c r="E133" s="5"/>
     </row>
-    <row r="134" s="3" customFormat="1" spans="2:5">
+    <row r="134" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B134" s="5"/>
       <c r="C134" s="9" t="s">
         <v>143</v>
@@ -2930,7 +2363,7 @@
       <c r="D134" s="6"/>
       <c r="E134" s="5"/>
     </row>
-    <row r="135" s="3" customFormat="1" spans="2:5">
+    <row r="135" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B135" s="5"/>
       <c r="C135" s="9" t="s">
         <v>144</v>
@@ -2938,7 +2371,7 @@
       <c r="D135" s="6"/>
       <c r="E135" s="5"/>
     </row>
-    <row r="136" s="3" customFormat="1" spans="2:5">
+    <row r="136" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B136" s="5"/>
       <c r="C136" s="9" t="s">
         <v>145</v>
@@ -2946,7 +2379,7 @@
       <c r="D136" s="6"/>
       <c r="E136" s="5"/>
     </row>
-    <row r="137" s="3" customFormat="1" spans="2:5">
+    <row r="137" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B137" s="5"/>
       <c r="C137" s="12" t="s">
         <v>146</v>
@@ -2954,13 +2387,13 @@
       <c r="D137" s="6"/>
       <c r="E137" s="5"/>
     </row>
-    <row r="138" s="3" customFormat="1" spans="2:5">
+    <row r="138" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B138" s="5"/>
       <c r="C138" s="6"/>
       <c r="D138" s="6"/>
       <c r="E138" s="5"/>
     </row>
-    <row r="139" s="3" customFormat="1" spans="2:5">
+    <row r="139" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B139" s="5" t="s">
         <v>147</v>
       </c>
@@ -2970,7 +2403,7 @@
       <c r="D139" s="6"/>
       <c r="E139" s="5"/>
     </row>
-    <row r="140" s="3" customFormat="1" spans="2:5">
+    <row r="140" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B140" s="5"/>
       <c r="C140" s="9" t="s">
         <v>149</v>
@@ -2978,7 +2411,7 @@
       <c r="D140" s="6"/>
       <c r="E140" s="5"/>
     </row>
-    <row r="141" s="3" customFormat="1" spans="2:5">
+    <row r="141" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B141" s="5"/>
       <c r="C141" s="9" t="s">
         <v>150</v>
@@ -2986,7 +2419,7 @@
       <c r="D141" s="6"/>
       <c r="E141" s="5"/>
     </row>
-    <row r="142" s="3" customFormat="1" spans="2:5">
+    <row r="142" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B142" s="5"/>
       <c r="C142" s="9" t="s">
         <v>151</v>
@@ -2994,7 +2427,7 @@
       <c r="D142" s="6"/>
       <c r="E142" s="5"/>
     </row>
-    <row r="143" s="3" customFormat="1" spans="2:5">
+    <row r="143" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B143" s="5"/>
       <c r="C143" s="9" t="s">
         <v>152</v>
@@ -3002,7 +2435,7 @@
       <c r="D143" s="6"/>
       <c r="E143" s="5"/>
     </row>
-    <row r="144" s="3" customFormat="1" spans="2:5">
+    <row r="144" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B144" s="5"/>
       <c r="C144" s="12" t="s">
         <v>115</v>
@@ -3010,13 +2443,13 @@
       <c r="D144" s="6"/>
       <c r="E144" s="5"/>
     </row>
-    <row r="145" s="3" customFormat="1" spans="2:5">
+    <row r="145" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B145" s="5"/>
       <c r="C145" s="6"/>
       <c r="D145" s="6"/>
       <c r="E145" s="5"/>
     </row>
-    <row r="146" s="3" customFormat="1" spans="2:5">
+    <row r="146" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B146" s="5"/>
       <c r="C146" s="7" t="s">
         <v>153</v>
@@ -3024,7 +2457,7 @@
       <c r="D146" s="6"/>
       <c r="E146" s="5"/>
     </row>
-    <row r="147" s="3" customFormat="1" spans="2:5">
+    <row r="147" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B147" s="5"/>
       <c r="C147" s="13" t="s">
         <v>154</v>
@@ -3032,7 +2465,7 @@
       <c r="D147" s="6"/>
       <c r="E147" s="5"/>
     </row>
-    <row r="148" s="3" customFormat="1" spans="2:5">
+    <row r="148" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B148" s="5"/>
       <c r="C148" s="13" t="s">
         <v>155</v>
@@ -3040,7 +2473,7 @@
       <c r="D148" s="6"/>
       <c r="E148" s="5"/>
     </row>
-    <row r="149" s="3" customFormat="1" spans="2:5">
+    <row r="149" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B149" s="5"/>
       <c r="C149" s="13" t="s">
         <v>156</v>
@@ -3048,13 +2481,13 @@
       <c r="D149" s="6"/>
       <c r="E149" s="5"/>
     </row>
-    <row r="150" s="3" customFormat="1" spans="2:5">
+    <row r="150" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B150" s="5"/>
       <c r="C150" s="13"/>
       <c r="D150" s="6"/>
       <c r="E150" s="5"/>
     </row>
-    <row r="151" s="3" customFormat="1" spans="2:5">
+    <row r="151" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B151" s="5"/>
       <c r="C151" s="13" t="s">
         <v>157</v>
@@ -3062,7 +2495,7 @@
       <c r="D151" s="6"/>
       <c r="E151" s="5"/>
     </row>
-    <row r="152" s="3" customFormat="1" spans="2:5">
+    <row r="152" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B152" s="5"/>
       <c r="C152" s="14" t="s">
         <v>158</v>
@@ -3070,13 +2503,13 @@
       <c r="D152" s="6"/>
       <c r="E152" s="5"/>
     </row>
-    <row r="153" s="3" customFormat="1" spans="2:5">
+    <row r="153" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B153" s="5"/>
       <c r="C153" s="15"/>
       <c r="D153" s="6"/>
       <c r="E153" s="5"/>
     </row>
-    <row r="154" s="3" customFormat="1" spans="2:5">
+    <row r="154" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B154" s="5"/>
       <c r="C154" s="7" t="s">
         <v>159</v>
@@ -3084,7 +2517,7 @@
       <c r="D154" s="6"/>
       <c r="E154" s="5"/>
     </row>
-    <row r="155" s="3" customFormat="1" spans="2:5">
+    <row r="155" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B155" s="5"/>
       <c r="C155" s="13" t="s">
         <v>160</v>
@@ -3092,7 +2525,7 @@
       <c r="D155" s="6"/>
       <c r="E155" s="5"/>
     </row>
-    <row r="156" s="3" customFormat="1" spans="2:5">
+    <row r="156" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B156" s="5"/>
       <c r="C156" s="13" t="s">
         <v>161</v>
@@ -3100,7 +2533,7 @@
       <c r="D156" s="6"/>
       <c r="E156" s="5"/>
     </row>
-    <row r="157" s="3" customFormat="1" spans="2:5">
+    <row r="157" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B157" s="5"/>
       <c r="C157" s="13" t="s">
         <v>162</v>
@@ -3108,7 +2541,7 @@
       <c r="D157" s="6"/>
       <c r="E157" s="5"/>
     </row>
-    <row r="158" s="3" customFormat="1" spans="2:5">
+    <row r="158" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B158" s="5"/>
       <c r="C158" s="14" t="s">
         <v>163</v>
@@ -3116,13 +2549,13 @@
       <c r="D158" s="6"/>
       <c r="E158" s="5"/>
     </row>
-    <row r="159" s="3" customFormat="1" spans="2:5">
+    <row r="159" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B159" s="5"/>
       <c r="C159" s="15"/>
       <c r="D159" s="6"/>
       <c r="E159" s="5"/>
     </row>
-    <row r="160" s="3" customFormat="1" spans="2:5">
+    <row r="160" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B160" s="5" t="s">
         <v>164</v>
       </c>
@@ -3132,20 +2565,20 @@
       <c r="D160" s="6"/>
       <c r="E160" s="5"/>
     </row>
-    <row r="161" s="3" customFormat="1" spans="2:5">
+    <row r="161" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B161" s="5"/>
       <c r="C161" s="13"/>
       <c r="D161" s="6"/>
       <c r="E161" s="5"/>
     </row>
-    <row r="162" s="3" customFormat="1" spans="3:5">
+    <row r="162" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C162" s="9" t="s">
         <v>166</v>
       </c>
       <c r="D162" s="6"/>
       <c r="E162" s="5"/>
     </row>
-    <row r="163" s="3" customFormat="1" spans="2:5">
+    <row r="163" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B163" s="5"/>
       <c r="C163" s="9" t="s">
         <v>167</v>
@@ -3153,7 +2586,7 @@
       <c r="D163" s="6"/>
       <c r="E163" s="5"/>
     </row>
-    <row r="164" s="3" customFormat="1" spans="2:5">
+    <row r="164" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B164" s="5"/>
       <c r="C164" s="9" t="s">
         <v>168</v>
@@ -3161,7 +2594,7 @@
       <c r="D164" s="6"/>
       <c r="E164" s="5"/>
     </row>
-    <row r="165" s="3" customFormat="1" spans="2:5">
+    <row r="165" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B165" s="5"/>
       <c r="C165" s="9" t="s">
         <v>169</v>
@@ -3169,7 +2602,7 @@
       <c r="D165" s="6"/>
       <c r="E165" s="5"/>
     </row>
-    <row r="166" s="3" customFormat="1" spans="2:5">
+    <row r="166" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B166" s="5"/>
       <c r="C166" s="9" t="s">
         <v>170</v>
@@ -3177,7 +2610,7 @@
       <c r="D166" s="6"/>
       <c r="E166" s="5"/>
     </row>
-    <row r="167" s="3" customFormat="1" spans="2:5">
+    <row r="167" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B167" s="5"/>
       <c r="C167" s="9" t="s">
         <v>171</v>
@@ -3185,7 +2618,7 @@
       <c r="D167" s="6"/>
       <c r="E167" s="5"/>
     </row>
-    <row r="168" s="3" customFormat="1" spans="2:5">
+    <row r="168" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B168" s="5"/>
       <c r="C168" s="12" t="s">
         <v>115</v>
@@ -3193,13 +2626,13 @@
       <c r="D168" s="6"/>
       <c r="E168" s="5"/>
     </row>
-    <row r="169" s="3" customFormat="1" spans="2:5">
+    <row r="169" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B169" s="5"/>
       <c r="C169" s="6"/>
       <c r="D169" s="6"/>
       <c r="E169" s="5"/>
     </row>
-    <row r="170" s="3" customFormat="1" spans="2:5">
+    <row r="170" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B170" s="5"/>
       <c r="C170" s="7" t="s">
         <v>172</v>
@@ -3207,7 +2640,7 @@
       <c r="D170" s="6"/>
       <c r="E170" s="5"/>
     </row>
-    <row r="171" s="3" customFormat="1" spans="2:5">
+    <row r="171" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B171" s="5"/>
       <c r="C171" s="13" t="s">
         <v>173</v>
@@ -3215,7 +2648,7 @@
       <c r="D171" s="6"/>
       <c r="E171" s="5"/>
     </row>
-    <row r="172" s="3" customFormat="1" spans="2:5">
+    <row r="172" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B172" s="5"/>
       <c r="C172" s="13" t="s">
         <v>174</v>
@@ -3223,7 +2656,7 @@
       <c r="D172" s="6"/>
       <c r="E172" s="5"/>
     </row>
-    <row r="173" s="3" customFormat="1" spans="2:5">
+    <row r="173" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B173" s="5"/>
       <c r="C173" s="13" t="s">
         <v>156</v>
@@ -3231,13 +2664,13 @@
       <c r="D173" s="6"/>
       <c r="E173" s="5"/>
     </row>
-    <row r="174" s="3" customFormat="1" spans="2:5">
+    <row r="174" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B174" s="5"/>
       <c r="C174" s="13"/>
       <c r="D174" s="6"/>
       <c r="E174" s="5"/>
     </row>
-    <row r="175" s="3" customFormat="1" spans="2:5">
+    <row r="175" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B175" s="5"/>
       <c r="C175" s="13" t="s">
         <v>175</v>
@@ -3245,7 +2678,7 @@
       <c r="D175" s="6"/>
       <c r="E175" s="5"/>
     </row>
-    <row r="176" s="3" customFormat="1" spans="2:5">
+    <row r="176" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B176" s="5"/>
       <c r="C176" s="14" t="s">
         <v>176</v>
@@ -3253,13 +2686,13 @@
       <c r="D176" s="6"/>
       <c r="E176" s="5"/>
     </row>
-    <row r="177" s="3" customFormat="1" spans="2:5">
+    <row r="177" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B177" s="5"/>
       <c r="C177" s="15"/>
       <c r="D177" s="6"/>
       <c r="E177" s="5"/>
     </row>
-    <row r="178" s="3" customFormat="1" spans="2:5">
+    <row r="178" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B178" s="5"/>
       <c r="C178" s="7" t="s">
         <v>177</v>
@@ -3267,7 +2700,7 @@
       <c r="D178" s="6"/>
       <c r="E178" s="5"/>
     </row>
-    <row r="179" s="3" customFormat="1" spans="2:5">
+    <row r="179" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B179" s="5"/>
       <c r="C179" s="9" t="s">
         <v>178</v>
@@ -3275,7 +2708,7 @@
       <c r="D179" s="6"/>
       <c r="E179" s="5"/>
     </row>
-    <row r="180" s="3" customFormat="1" spans="2:5">
+    <row r="180" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B180" s="5"/>
       <c r="C180" s="9" t="s">
         <v>179</v>
@@ -3283,7 +2716,7 @@
       <c r="D180" s="6"/>
       <c r="E180" s="5"/>
     </row>
-    <row r="181" s="3" customFormat="1" spans="2:5">
+    <row r="181" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B181" s="5"/>
       <c r="C181" s="9" t="s">
         <v>180</v>
@@ -3291,7 +2724,7 @@
       <c r="D181" s="6"/>
       <c r="E181" s="5"/>
     </row>
-    <row r="182" s="3" customFormat="1" spans="2:5">
+    <row r="182" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B182" s="5"/>
       <c r="C182" s="9" t="s">
         <v>181</v>
@@ -3299,7 +2732,7 @@
       <c r="D182" s="6"/>
       <c r="E182" s="5"/>
     </row>
-    <row r="183" s="3" customFormat="1" spans="2:5">
+    <row r="183" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B183" s="5"/>
       <c r="C183" s="12" t="s">
         <v>163</v>
@@ -3307,13 +2740,13 @@
       <c r="D183" s="6"/>
       <c r="E183" s="5"/>
     </row>
-    <row r="184" s="3" customFormat="1" spans="2:5">
+    <row r="184" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B184" s="5"/>
       <c r="C184" s="6"/>
       <c r="D184" s="6"/>
       <c r="E184" s="5"/>
     </row>
-    <row r="185" s="3" customFormat="1" spans="2:5">
+    <row r="185" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B185" s="5"/>
       <c r="C185" s="7" t="s">
         <v>182</v>
@@ -3321,7 +2754,7 @@
       <c r="D185" s="6"/>
       <c r="E185" s="5"/>
     </row>
-    <row r="186" s="3" customFormat="1" spans="2:5">
+    <row r="186" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B186" s="5"/>
       <c r="C186" s="16" t="s">
         <v>183</v>
@@ -3329,7 +2762,7 @@
       <c r="D186" s="6"/>
       <c r="E186" s="5"/>
     </row>
-    <row r="187" s="3" customFormat="1" spans="2:5">
+    <row r="187" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B187" s="5"/>
       <c r="C187" s="13" t="s">
         <v>184</v>
@@ -3337,7 +2770,7 @@
       <c r="D187" s="6"/>
       <c r="E187" s="5"/>
     </row>
-    <row r="188" s="3" customFormat="1" spans="2:5">
+    <row r="188" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B188" s="5"/>
       <c r="C188" s="14" t="s">
         <v>185</v>
@@ -3345,605 +2778,382 @@
       <c r="D188" s="6"/>
       <c r="E188" s="5"/>
     </row>
-    <row r="189" s="3" customFormat="1" spans="2:5">
+    <row r="189" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B189" s="5"/>
       <c r="C189" s="6"/>
       <c r="D189" s="6"/>
       <c r="E189" s="5"/>
     </row>
-    <row r="190" s="3" customFormat="1" spans="2:5">
+    <row r="190" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B190" s="5"/>
-      <c r="C190" s="6" t="s">
-        <v>186</v>
-      </c>
+      <c r="C190" s="6"/>
       <c r="D190" s="6"/>
-      <c r="E190" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="191" s="3" customFormat="1" spans="2:4">
+      <c r="E190" s="5"/>
+    </row>
+    <row r="191" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B191" s="5"/>
-      <c r="C191" s="6"/>
+      <c r="C191" s="6" t="s">
+        <v>204</v>
+      </c>
       <c r="D191" s="6"/>
-    </row>
-    <row r="192" s="3" customFormat="1" spans="2:5">
-      <c r="B192" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="C192" s="7" t="s">
-        <v>189</v>
-      </c>
+      <c r="E191" s="5"/>
+    </row>
+    <row r="192" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B192" s="5"/>
+      <c r="C192" s="6"/>
       <c r="D192" s="6"/>
-      <c r="E192" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="193" s="3" customFormat="1" spans="2:5">
+      <c r="E192" s="5"/>
+    </row>
+    <row r="193" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B193" s="5"/>
-      <c r="C193" s="9" t="s">
-        <v>190</v>
-      </c>
+      <c r="C193" s="6"/>
       <c r="D193" s="6"/>
-      <c r="E193" s="10" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="194" s="3" customFormat="1" spans="2:5">
+      <c r="E193" s="5"/>
+    </row>
+    <row r="194" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B194" s="5"/>
-      <c r="C194" s="9" t="s">
-        <v>192</v>
-      </c>
+      <c r="C194" s="6"/>
       <c r="D194" s="6"/>
-      <c r="E194" s="10" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="195" s="3" customFormat="1" spans="2:5">
+      <c r="E194" s="5"/>
+    </row>
+    <row r="195" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B195" s="5"/>
-      <c r="C195" s="9" t="s">
-        <v>115</v>
-      </c>
+      <c r="C195" s="6"/>
       <c r="D195" s="6"/>
-      <c r="E195" s="10" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="196" s="3" customFormat="1" spans="2:5">
+      <c r="E195" s="5"/>
+    </row>
+    <row r="196" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B196" s="5"/>
-      <c r="C196" s="12" t="s">
-        <v>195</v>
-      </c>
+      <c r="C196" s="6"/>
       <c r="D196" s="6"/>
-      <c r="E196" s="10" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="197" s="3" customFormat="1" spans="2:5">
+      <c r="E196" s="5"/>
+    </row>
+    <row r="197" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B197" s="5"/>
       <c r="C197" s="6"/>
       <c r="D197" s="6"/>
-      <c r="E197" s="10" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="198" s="3" customFormat="1" spans="2:5">
+      <c r="E197" s="5"/>
+    </row>
+    <row r="198" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B198" s="5"/>
       <c r="C198" s="6"/>
       <c r="D198" s="6"/>
-      <c r="E198" s="10" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="199" s="3" customFormat="1" spans="2:5">
+      <c r="E198" s="5"/>
+    </row>
+    <row r="199" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B199" s="5"/>
       <c r="C199" s="6"/>
       <c r="D199" s="6"/>
-      <c r="E199" s="10" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="200" s="3" customFormat="1" spans="2:5">
+      <c r="E199" s="5"/>
+    </row>
+    <row r="200" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B200" s="5"/>
       <c r="C200" s="6"/>
       <c r="D200" s="6"/>
-      <c r="E200" s="10" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="201" s="3" customFormat="1" spans="2:5">
+      <c r="E200" s="5"/>
+    </row>
+    <row r="201" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B201" s="5"/>
       <c r="C201" s="6"/>
       <c r="D201" s="6"/>
-      <c r="E201" s="11" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="202" s="3" customFormat="1" spans="2:5">
+      <c r="E201" s="5"/>
+    </row>
+    <row r="202" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B202" s="5"/>
       <c r="C202" s="6"/>
       <c r="D202" s="6"/>
       <c r="E202" s="5"/>
     </row>
-    <row r="203" s="3" customFormat="1" spans="2:5">
+    <row r="203" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B203" s="5"/>
       <c r="C203" s="6"/>
       <c r="D203" s="6"/>
       <c r="E203" s="5"/>
     </row>
-    <row r="204" s="3" customFormat="1" spans="2:5">
+    <row r="204" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B204" s="5"/>
       <c r="C204" s="6"/>
       <c r="D204" s="6"/>
       <c r="E204" s="5"/>
     </row>
-    <row r="205" s="3" customFormat="1" spans="2:5">
+    <row r="205" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B205" s="5"/>
       <c r="C205" s="6"/>
       <c r="D205" s="6"/>
       <c r="E205" s="5"/>
     </row>
-    <row r="206" s="3" customFormat="1" spans="2:5">
+    <row r="206" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B206" s="5"/>
       <c r="C206" s="6"/>
       <c r="D206" s="6"/>
       <c r="E206" s="5"/>
     </row>
-    <row r="207" s="3" customFormat="1" spans="2:5">
+    <row r="207" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B207" s="5"/>
       <c r="C207" s="6"/>
       <c r="D207" s="6"/>
       <c r="E207" s="5"/>
     </row>
-    <row r="208" s="3" customFormat="1" spans="2:5">
+    <row r="208" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B208" s="5"/>
       <c r="C208" s="6"/>
       <c r="D208" s="6"/>
       <c r="E208" s="5"/>
     </row>
-    <row r="209" s="3" customFormat="1" spans="2:5">
+    <row r="209" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B209" s="5"/>
       <c r="C209" s="6"/>
       <c r="D209" s="6"/>
       <c r="E209" s="5"/>
     </row>
-    <row r="210" s="3" customFormat="1" spans="2:5">
+    <row r="210" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B210" s="5"/>
       <c r="C210" s="6"/>
       <c r="D210" s="6"/>
       <c r="E210" s="5"/>
     </row>
-    <row r="211" s="3" customFormat="1" spans="2:5">
+    <row r="211" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B211" s="5"/>
       <c r="C211" s="6"/>
       <c r="D211" s="6"/>
       <c r="E211" s="5"/>
     </row>
-    <row r="212" s="3" customFormat="1" spans="2:5">
+    <row r="212" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B212" s="5"/>
       <c r="C212" s="6"/>
       <c r="D212" s="6"/>
       <c r="E212" s="5"/>
     </row>
-    <row r="213" s="3" customFormat="1" spans="2:5">
+    <row r="213" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B213" s="5"/>
       <c r="C213" s="6"/>
       <c r="D213" s="6"/>
       <c r="E213" s="5"/>
     </row>
-    <row r="214" s="3" customFormat="1" spans="2:5">
+    <row r="214" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B214" s="5"/>
       <c r="C214" s="6"/>
       <c r="D214" s="6"/>
       <c r="E214" s="5"/>
     </row>
-    <row r="215" s="3" customFormat="1" spans="2:5">
+    <row r="215" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B215" s="5"/>
       <c r="C215" s="6"/>
       <c r="D215" s="6"/>
       <c r="E215" s="5"/>
     </row>
-    <row r="216" s="3" customFormat="1" spans="2:5">
+    <row r="216" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B216" s="5"/>
       <c r="C216" s="6"/>
       <c r="D216" s="6"/>
       <c r="E216" s="5"/>
     </row>
-    <row r="217" s="3" customFormat="1" spans="2:5">
+    <row r="217" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B217" s="5"/>
       <c r="C217" s="6"/>
       <c r="D217" s="6"/>
       <c r="E217" s="5"/>
     </row>
-    <row r="218" s="3" customFormat="1" spans="2:5">
+    <row r="218" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B218" s="5"/>
       <c r="C218" s="6"/>
       <c r="D218" s="6"/>
       <c r="E218" s="5"/>
     </row>
-    <row r="219" s="3" customFormat="1" spans="2:5">
+    <row r="219" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B219" s="5"/>
       <c r="C219" s="6"/>
       <c r="D219" s="6"/>
       <c r="E219" s="5"/>
     </row>
-    <row r="220" s="3" customFormat="1" spans="2:5">
+    <row r="220" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B220" s="5"/>
       <c r="C220" s="6"/>
       <c r="D220" s="6"/>
       <c r="E220" s="5"/>
     </row>
-    <row r="221" s="3" customFormat="1" spans="2:5">
+    <row r="221" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B221" s="5"/>
       <c r="C221" s="6"/>
       <c r="D221" s="6"/>
       <c r="E221" s="5"/>
     </row>
-    <row r="222" s="3" customFormat="1" spans="2:5">
+    <row r="222" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B222" s="5"/>
       <c r="C222" s="6"/>
       <c r="D222" s="6"/>
       <c r="E222" s="5"/>
     </row>
-    <row r="223" s="3" customFormat="1" spans="2:5">
+    <row r="223" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B223" s="5"/>
       <c r="C223" s="6"/>
       <c r="D223" s="6"/>
       <c r="E223" s="5"/>
     </row>
-    <row r="224" s="3" customFormat="1" spans="2:5">
+    <row r="224" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B224" s="5"/>
       <c r="C224" s="6"/>
       <c r="D224" s="6"/>
       <c r="E224" s="5"/>
     </row>
-    <row r="225" s="3" customFormat="1" spans="2:5">
+    <row r="225" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B225" s="5"/>
       <c r="C225" s="6"/>
       <c r="D225" s="6"/>
       <c r="E225" s="5"/>
     </row>
-    <row r="226" s="3" customFormat="1" spans="2:5">
+    <row r="226" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B226" s="5"/>
       <c r="C226" s="6"/>
       <c r="D226" s="6"/>
       <c r="E226" s="5"/>
     </row>
-    <row r="227" s="3" customFormat="1" spans="2:5">
+    <row r="227" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B227" s="5"/>
       <c r="C227" s="6"/>
       <c r="D227" s="6"/>
       <c r="E227" s="5"/>
     </row>
-    <row r="228" s="3" customFormat="1" spans="2:5">
-      <c r="B228" s="5"/>
-      <c r="C228" s="6"/>
-      <c r="D228" s="6"/>
-      <c r="E228" s="5"/>
-    </row>
-    <row r="229" s="3" customFormat="1" spans="2:5">
-      <c r="B229" s="5"/>
-      <c r="C229" s="6"/>
-      <c r="D229" s="6"/>
-      <c r="E229" s="5"/>
-    </row>
-    <row r="230" s="3" customFormat="1" spans="2:5">
-      <c r="B230" s="5"/>
-      <c r="C230" s="6"/>
-      <c r="D230" s="6"/>
-      <c r="E230" s="5"/>
-    </row>
-    <row r="231" s="3" customFormat="1" spans="2:5">
-      <c r="B231" s="5"/>
-      <c r="C231" s="6"/>
-      <c r="D231" s="6"/>
-      <c r="E231" s="5"/>
-    </row>
-    <row r="232" s="3" customFormat="1" spans="2:5">
-      <c r="B232" s="5"/>
-      <c r="C232" s="6"/>
-      <c r="D232" s="6"/>
-      <c r="E232" s="5"/>
-    </row>
-    <row r="233" s="3" customFormat="1" spans="2:5">
-      <c r="B233" s="5"/>
-      <c r="C233" s="6"/>
-      <c r="D233" s="6"/>
-      <c r="E233" s="5"/>
-    </row>
-    <row r="234" s="3" customFormat="1" spans="2:5">
-      <c r="B234" s="5"/>
-      <c r="C234" s="6"/>
-      <c r="D234" s="6"/>
-      <c r="E234" s="5"/>
-    </row>
-    <row r="235" s="3" customFormat="1" spans="2:5">
-      <c r="B235" s="5"/>
-      <c r="C235" s="6"/>
-      <c r="D235" s="6"/>
-      <c r="E235" s="5"/>
-    </row>
-    <row r="236" s="3" customFormat="1" spans="2:5">
-      <c r="B236" s="5"/>
-      <c r="C236" s="6"/>
-      <c r="D236" s="6"/>
-      <c r="E236" s="5"/>
-    </row>
-    <row r="237" s="3" customFormat="1" spans="2:5">
-      <c r="B237" s="5"/>
-      <c r="C237" s="6"/>
-      <c r="D237" s="6"/>
-      <c r="E237" s="5"/>
-    </row>
-    <row r="238" s="3" customFormat="1" spans="2:5">
-      <c r="B238" s="5"/>
-      <c r="C238" s="6"/>
-      <c r="D238" s="6"/>
-      <c r="E238" s="5"/>
-    </row>
-    <row r="239" s="3" customFormat="1" spans="2:5">
-      <c r="B239" s="5"/>
-      <c r="C239" s="6"/>
-      <c r="D239" s="6"/>
-      <c r="E239" s="5"/>
-    </row>
-    <row r="240" s="3" customFormat="1" spans="2:5">
-      <c r="B240" s="5"/>
-      <c r="C240" s="6"/>
-      <c r="D240" s="6"/>
-      <c r="E240" s="5"/>
-    </row>
-    <row r="241" s="3" customFormat="1" spans="2:5">
-      <c r="B241" s="5"/>
-      <c r="C241" s="6"/>
-      <c r="D241" s="6"/>
-      <c r="E241" s="5"/>
-    </row>
-    <row r="242" s="3" customFormat="1" spans="2:5">
-      <c r="B242" s="5"/>
-      <c r="C242" s="6"/>
-      <c r="D242" s="6"/>
-      <c r="E242" s="5"/>
-    </row>
-    <row r="243" s="3" customFormat="1" spans="2:5">
-      <c r="B243" s="5"/>
-      <c r="C243" s="6"/>
-      <c r="D243" s="6"/>
-      <c r="E243" s="5"/>
-    </row>
-    <row r="244" s="3" customFormat="1" spans="2:5">
-      <c r="B244" s="5"/>
-      <c r="C244" s="6"/>
-      <c r="D244" s="6"/>
-      <c r="E244" s="5"/>
-    </row>
-    <row r="245" s="3" customFormat="1" spans="2:5">
-      <c r="B245" s="5"/>
-      <c r="C245" s="6"/>
-      <c r="D245" s="6"/>
-      <c r="E245" s="5"/>
-    </row>
-    <row r="246" s="3" customFormat="1" spans="2:5">
-      <c r="B246" s="5"/>
-      <c r="C246" s="6"/>
-      <c r="D246" s="6"/>
-      <c r="E246" s="5"/>
-    </row>
-    <row r="247" s="3" customFormat="1" spans="2:5">
-      <c r="B247" s="5"/>
-      <c r="C247" s="6"/>
-      <c r="D247" s="6"/>
-      <c r="E247" s="5"/>
-    </row>
-    <row r="248" s="3" customFormat="1" spans="2:5">
-      <c r="B248" s="5"/>
-      <c r="C248" s="6"/>
-      <c r="D248" s="6"/>
-      <c r="E248" s="5"/>
-    </row>
-    <row r="249" s="3" customFormat="1" spans="2:5">
-      <c r="B249" s="5"/>
-      <c r="C249" s="6"/>
-      <c r="D249" s="6"/>
-      <c r="E249" s="5"/>
-    </row>
-    <row r="250" s="3" customFormat="1" spans="2:5">
-      <c r="B250" s="5"/>
-      <c r="C250" s="6"/>
-      <c r="D250" s="6"/>
-      <c r="E250" s="5"/>
-    </row>
-    <row r="251" s="3" customFormat="1" spans="2:5">
-      <c r="B251" s="5"/>
-      <c r="C251" s="6"/>
-      <c r="D251" s="6"/>
-      <c r="E251" s="5"/>
-    </row>
-    <row r="252" s="3" customFormat="1" spans="2:5">
-      <c r="B252" s="5"/>
-      <c r="C252" s="6"/>
-      <c r="D252" s="6"/>
-      <c r="E252" s="5"/>
-    </row>
-    <row r="253" s="3" customFormat="1" spans="2:5">
-      <c r="B253" s="5"/>
-      <c r="C253" s="6"/>
-      <c r="D253" s="6"/>
-      <c r="E253" s="5"/>
-    </row>
-    <row r="254" s="3" customFormat="1" spans="2:5">
-      <c r="B254" s="5"/>
-      <c r="C254" s="6"/>
-      <c r="D254" s="6"/>
-      <c r="E254" s="5"/>
-    </row>
-    <row r="255" s="3" customFormat="1" spans="2:5">
-      <c r="B255" s="5"/>
-      <c r="C255" s="6"/>
-      <c r="D255" s="6"/>
-      <c r="E255" s="5"/>
-    </row>
-    <row r="256" s="3" customFormat="1" spans="2:5">
-      <c r="B256" s="5"/>
-      <c r="C256" s="6"/>
-      <c r="D256" s="6"/>
-      <c r="E256" s="5"/>
-    </row>
-    <row r="257" s="3" customFormat="1" spans="2:5">
-      <c r="B257" s="5"/>
-      <c r="C257" s="6"/>
-      <c r="D257" s="6"/>
-      <c r="E257" s="5"/>
-    </row>
-    <row r="258" s="3" customFormat="1" spans="2:5">
-      <c r="B258" s="5"/>
-      <c r="C258" s="6"/>
-      <c r="D258" s="6"/>
-      <c r="E258" s="5"/>
-    </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:D24"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="AZ14" sqref="AZ14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.775" defaultRowHeight="12" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="2.775" style="1"/>
+    <col min="1" max="16384" width="2.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="4" spans="3:3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="5" spans="3:3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="6" ht="12.75" spans="3:3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="12.6" x14ac:dyDescent="0.3">
       <c r="C6" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="7" spans="3:3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="8" spans="3:3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="9" spans="3:3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C9" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="3:3">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="13" spans="3:3">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C13" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="14" spans="4:4">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D14" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="15" spans="4:4">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D15" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="16" spans="3:3">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C16" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="17" spans="4:4">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D17" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="18" spans="4:4">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D18" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="19" spans="4:4">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D19" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="22" spans="3:3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C22" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="23" spans="3:3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C23" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="24" spans="3:3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C24" s="1" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>